--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxiuhong/项目资料/基础架构研发/hrds-prod-repo/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BE0DE-B3FC-0945-B07A-006059B852C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A8B552-AA92-B64A-983B-FB88006B7A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="33620" windowHeight="17920" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="2880" windowWidth="33620" windowHeight="17920" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="373">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -317,7 +317,7 @@
   </si>
   <si>
     <t>DISPLAY_ORDER</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>choerodon.route.project.cluster-apply</t>
@@ -606,12 +606,589 @@
   <si>
     <t>回收</t>
   </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting</t>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>Personal Settings</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.personal-setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>代码库设置</t>
+  </si>
+  <si>
+    <t>Code Base Settings</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>SVN设置</t>
+  </si>
+  <si>
+    <t>SVN Setting</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-management</t>
+  </si>
+  <si>
+    <t>SVN权限分配</t>
+  </si>
+  <si>
+    <t>SVN Rights Assign</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.doc-lib.ps-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation</t>
+  </si>
+  <si>
+    <t>classname</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-view</t>
+  </si>
+  <si>
+    <t>SVN权限查看</t>
+  </si>
+  <si>
+    <t>SVN Rights View</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.doc-lib.ps-view</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.code-lib.code-management</t>
+  </si>
+  <si>
+    <t>统一代码库管理</t>
+  </si>
+  <si>
+    <t>Code Base Management</t>
+  </si>
+  <si>
+    <t>choerodon.route.infra.code-lib.code-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc-management</t>
+  </si>
+  <si>
+    <t>统一文档库管理</t>
+  </si>
+  <si>
+    <t>Doc Base Management</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation-logs</t>
+  </si>
+  <si>
+    <t>SVN权限操作审计</t>
+  </si>
+  <si>
+    <t>SVN Authority Operation Logs</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.operation-logs</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.security-audit</t>
+  </si>
+  <si>
+    <t>SVN权限安全审计</t>
+  </si>
+  <si>
+    <t>SVN Authority Security Audit</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.security-audit</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>manage_organization</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.ps-view</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.ps-view</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.audit-management</t>
+  </si>
+  <si>
+    <t>审计管理</t>
+  </si>
+  <si>
+    <t>Audit Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.operation-logs</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.operation-logs</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>文档库管理</t>
+  </si>
+  <si>
+    <t>Document Library Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc.ps-assign</t>
+  </si>
+  <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>Permission Assignment</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc.ps-assign</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc.operation-log</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>Operation log</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc.operation-log</t>
+  </si>
+  <si>
+    <t>代码库管理</t>
+  </si>
+  <si>
+    <t>制品库管理</t>
+  </si>
+  <si>
+    <t>Product Library Management</t>
+  </si>
+  <si>
+    <t>文档库审计</t>
+  </si>
+  <si>
+    <t>Document Library Audit</t>
+  </si>
+  <si>
+    <t>work_log</t>
+  </si>
+  <si>
+    <t>代码库审计</t>
+  </si>
+  <si>
+    <t>Code Base Audit</t>
+  </si>
+  <si>
+    <t>集群申请</t>
+  </si>
+  <si>
+    <t>Cluster Apply</t>
+  </si>
+  <si>
+    <t>集群审批</t>
+  </si>
+  <si>
+    <t>Cluster Approval</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-repository-proj.pageOverviewByOptions</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-operation-log-proj.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.syncMembersFromGitlab</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.removeMember</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.updateMember</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.syncMember</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.removeProtectedBranch</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.createProtectedBranch</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.getBranches</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.getProtectedBranches</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.updateProtectedBranch</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.getProtectedTags</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.createProtectedTag</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.deleteProtectedTag</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.getTags</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.batchAddMembers</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.export</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.passAndHandleMember</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.refuse</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-export.projectExport</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.syncMultiUser</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.createRepo</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.syncOneUser</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.getProjectCatalog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getProjectDetail</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.create</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getUserList</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getProjectCatalog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.listProjectsWithLimit</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.addDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.deleteDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.renameDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-audit.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.detail</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.create</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.update</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.remove</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.uploadPrivateKey</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.check</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.getServerByProject</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.deleteFile</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.listPro</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.listPro</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.revokeAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.updateAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.assignAuth</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.org.listProjectsByUserId</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.export</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-export.orgExport</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-service-scan.scan</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-service-scan.sumServiceScan</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.getSolution</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.countByDate</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.update</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.getHttpdLog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project-server.grantAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project-server.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.listOrg</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.getChart</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.revokeOrgAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.listOrg</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-user-site.queryUser</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-user-site.createUser</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.updatePwd</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.selectPwd</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.syncUser</t>
+  </si>
+  <si>
+    <t>/infra/personal-setting/gitlab</t>
+  </si>
+  <si>
+    <t>个人设置-代码库设置Tab路由</t>
+  </si>
+  <si>
+    <t>/infra/personal-setting/svn</t>
+  </si>
+  <si>
+    <t>个人设置-SVN设置Tab路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/ps-management</t>
+  </si>
+  <si>
+    <t>SVN权限管理路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/ps-view</t>
+  </si>
+  <si>
+    <t>SVN权限查看路由</t>
+  </si>
+  <si>
+    <t>/infra/code-lib/code-management</t>
+  </si>
+  <si>
+    <t>统一代码库管理路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/operation-logs</t>
+  </si>
+  <si>
+    <t>SVN权限操作审计路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/security-audit</t>
+  </si>
+  <si>
+    <t>SVN权限安全审计路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/ps-view-org</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib/operation-logs-org</t>
+  </si>
+  <si>
+    <t>代码库设置Tab路由</t>
+  </si>
+  <si>
+    <t>SVN设置Tab路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-management/ps-assign</t>
+  </si>
+  <si>
+    <t>权限分配路由</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-management/operation-log</t>
+  </si>
+  <si>
+    <t>操作日志路由</t>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>route.organization.ps-view</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>route.organization.operation-logs</t>
+    </r>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -637,63 +1214,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="5" tint="0.39994506668294322"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Droid Sans Fallback"/>
     </font>
     <font>
@@ -717,19 +1243,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5B9BD5"/>
-      <name val="PingFang SC"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -815,15 +1328,68 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线 Regular"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="9" tint="0.39994506668294322"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.39994506668294322"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39994506668294322"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="0.39991454817346722"/>
+      <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="0.39991454817346722"/>
+      <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="等线 Regular"/>
-      <charset val="134"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -861,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,26 +1438,23 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -900,14 +1463,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1186,7 +1746,7 @@
   <dimension ref="D7:Q48"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1209,59 +1769,59 @@
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="8" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F8" s="19" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>16</v>
@@ -1279,21 +1839,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="9" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F9" s="19" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>16</v>
@@ -1311,21 +1871,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="10" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F10" s="19" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>16</v>
@@ -1343,12 +1903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="11" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F11" s="19" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
@@ -1356,8 +1916,8 @@
       <c r="I11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>25</v>
+      <c r="J11" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>16</v>
@@ -1375,21 +1935,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="12" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F12" s="19" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>16</v>
@@ -1407,12 +1967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="13" spans="4:15" s="19" customFormat="1">
       <c r="F13" s="19" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>21</v>
+        <v>354</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
@@ -1420,8 +1980,8 @@
       <c r="I13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>22</v>
+      <c r="J13" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>16</v>
@@ -1439,21 +1999,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="14" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F14" s="19" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>16</v>
@@ -1471,12 +2031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:17" s="19" customFormat="1" ht="14">
+    <row r="15" spans="4:15" s="19" customFormat="1" ht="14">
       <c r="F15" s="19" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>13</v>
@@ -1484,8 +2044,8 @@
       <c r="I15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>104</v>
+      <c r="J15" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>16</v>
@@ -1503,262 +2063,504 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:17" s="34" customFormat="1" ht="14">
-      <c r="F16" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="36" t="s">
+    <row r="16" spans="4:15" s="19" customFormat="1">
+      <c r="F16" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="35">
-        <v>0</v>
-      </c>
-      <c r="M16" s="35">
-        <v>0</v>
-      </c>
-      <c r="N16" s="35">
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
         <v>0</v>
       </c>
       <c r="O16" s="19">
         <v>1</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="6:17" s="34" customFormat="1" ht="14">
-      <c r="F17" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="36" t="s">
+    </row>
+    <row r="17" spans="4:17" s="19" customFormat="1">
+      <c r="F17" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="D18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="36" t="s">
+      <c r="J18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="35">
-        <v>0</v>
-      </c>
-      <c r="M17" s="35">
-        <v>0</v>
-      </c>
-      <c r="N17" s="35">
-        <v>0</v>
-      </c>
-      <c r="O17" s="19">
-        <v>1</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="6:17" s="38" customFormat="1">
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0</v>
+      </c>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="6:17">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="6:17">
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="6:17">
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="6:17" ht="14">
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="6:17" ht="14">
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="6:17" ht="14">
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="6:17" ht="14">
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="6:17">
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-    </row>
-    <row r="27" spans="6:17" ht="14">
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="6:17" ht="14">
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="6:17">
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="6:17">
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="6:17">
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="6:17">
+    <row r="19" spans="4:17" s="19" customFormat="1" ht="14">
+      <c r="F19" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" s="19" customFormat="1" ht="14">
+      <c r="F20" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="4:17" s="19" customFormat="1" ht="14">
+      <c r="F22" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" s="19" customFormat="1" ht="14">
+      <c r="F23" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="D26" s="19"/>
+      <c r="F26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" s="23" customFormat="1" ht="14">
+      <c r="F29" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" s="23" customFormat="1">
+      <c r="F30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" s="23" customFormat="1">
+      <c r="F31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1851,7 +2653,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -1900,52 +2702,52 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="6:14" s="13" customFormat="1" ht="14">
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-    </row>
-    <row r="46" spans="6:14" s="13" customFormat="1" ht="14">
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-    </row>
-    <row r="47" spans="6:14" s="13" customFormat="1" ht="14">
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-    </row>
-    <row r="48" spans="6:14" s="13" customFormat="1" ht="14">
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
+    <row r="45" spans="6:14" s="7" customFormat="1" ht="14">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="6:14" s="7" customFormat="1" ht="14">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="6:14" s="7" customFormat="1" ht="14">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="6:14" s="7" customFormat="1" ht="14">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -2012,13 +2814,13 @@
       <c r="G8" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="16" t="s">
         <v>140</v>
       </c>
       <c r="K8">
@@ -2035,13 +2837,13 @@
       <c r="G9" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="16" t="s">
         <v>142</v>
       </c>
       <c r="K9">
@@ -2058,13 +2860,13 @@
       <c r="G10" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="16" t="s">
         <v>144</v>
       </c>
       <c r="K10">
@@ -2081,13 +2883,13 @@
       <c r="G11" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="16" t="s">
         <v>145</v>
       </c>
       <c r="K11">
@@ -2104,13 +2906,13 @@
       <c r="G12" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="16" t="s">
         <v>146</v>
       </c>
       <c r="K12">
@@ -2127,13 +2929,13 @@
       <c r="G13" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="16" t="s">
         <v>147</v>
       </c>
       <c r="K13">
@@ -2150,13 +2952,13 @@
       <c r="G14" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="16" t="s">
         <v>149</v>
       </c>
       <c r="K14">
@@ -2173,13 +2975,13 @@
       <c r="G15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="16" t="s">
         <v>151</v>
       </c>
       <c r="K15">
@@ -2196,13 +2998,13 @@
       <c r="G16" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K16">
@@ -2219,13 +3021,13 @@
       <c r="G17" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="16" t="s">
         <v>153</v>
       </c>
       <c r="K17">
@@ -2242,13 +3044,13 @@
       <c r="G18" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="16" t="s">
         <v>154</v>
       </c>
       <c r="K18">
@@ -2357,13 +3159,13 @@
       <c r="G23" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="16" t="s">
         <v>158</v>
       </c>
       <c r="K23">
@@ -2380,20 +3182,20 @@
       <c r="G24" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="16" t="s">
         <v>159</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="5:11">
+    <row r="25" spans="5:11" ht="14">
       <c r="E25" t="s">
         <v>160</v>
       </c>
@@ -2403,20 +3205,20 @@
       <c r="G25" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="16" t="s">
         <v>161</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="5:11">
+    <row r="26" spans="5:11" ht="14">
       <c r="E26" t="s">
         <v>162</v>
       </c>
@@ -2426,20 +3228,20 @@
       <c r="G26" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="16" t="s">
         <v>163</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="5:11">
+    <row r="27" spans="5:11" ht="14">
       <c r="E27" t="s">
         <v>164</v>
       </c>
@@ -2449,20 +3251,20 @@
       <c r="G27" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="16" t="s">
         <v>165</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="5:11">
+    <row r="28" spans="5:11" ht="14">
       <c r="E28" t="s">
         <v>166</v>
       </c>
@@ -2472,20 +3274,20 @@
       <c r="G28" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="16" t="s">
         <v>167</v>
       </c>
       <c r="K28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="5:11">
+    <row r="29" spans="5:11" ht="14">
       <c r="E29" t="s">
         <v>168</v>
       </c>
@@ -2495,20 +3297,20 @@
       <c r="G29" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="16" t="s">
         <v>169</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="5:11">
+    <row r="30" spans="5:11" ht="14">
       <c r="E30" t="s">
         <v>170</v>
       </c>
@@ -2518,20 +3320,20 @@
       <c r="G30" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="16" t="s">
         <v>171</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="5:11">
+    <row r="31" spans="5:11" ht="14">
       <c r="E31" t="s">
         <v>172</v>
       </c>
@@ -2541,20 +3343,20 @@
       <c r="G31" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="16" t="s">
         <v>173</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:11" ht="14">
       <c r="E32" t="s">
         <v>174</v>
       </c>
@@ -2564,20 +3366,20 @@
       <c r="G32" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="16" t="s">
         <v>175</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="5:11">
+    <row r="33" spans="5:11" ht="14">
       <c r="E33" t="s">
         <v>176</v>
       </c>
@@ -2587,20 +3389,20 @@
       <c r="G33" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="16" t="s">
         <v>177</v>
       </c>
       <c r="K33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="5:11">
+    <row r="34" spans="5:11" ht="14">
       <c r="E34" t="s">
         <v>178</v>
       </c>
@@ -2610,20 +3412,20 @@
       <c r="G34" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" ht="14">
       <c r="E35" t="s">
         <v>180</v>
       </c>
@@ -2633,20 +3435,20 @@
       <c r="G35" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="16" t="s">
         <v>181</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" ht="14">
       <c r="E36" t="s">
         <v>182</v>
       </c>
@@ -2656,20 +3458,20 @@
       <c r="G36" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="16" t="s">
         <v>183</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:11">
+    <row r="37" spans="5:11" ht="14">
       <c r="E37" t="s">
         <v>184</v>
       </c>
@@ -2679,20 +3481,20 @@
       <c r="G37" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="16" t="s">
         <v>185</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:11">
+    <row r="38" spans="5:11" ht="14">
       <c r="E38" t="s">
         <v>93</v>
       </c>
@@ -2702,20 +3504,20 @@
       <c r="G38" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="16" t="s">
         <v>186</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:11">
+    <row r="39" spans="5:11" ht="14">
       <c r="E39" t="s">
         <v>94</v>
       </c>
@@ -2725,13 +3527,13 @@
       <c r="G39" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="16" t="s">
         <v>187</v>
       </c>
       <c r="K39">
@@ -2739,7 +3541,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2749,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="117" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" zoomScale="117" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2776,34 +3578,34 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -2812,937 +3614,1540 @@
       <c r="O7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="F8" s="39" t="s">
+    <row r="8" spans="4:17" s="23" customFormat="1" ht="14" customHeight="1">
+      <c r="F8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="19">
+        <v>20</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" s="23" customFormat="1" ht="14" customHeight="1">
+      <c r="F9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="19">
+        <v>20</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" s="23" customFormat="1">
+      <c r="F10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="19">
+        <v>30</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" s="19" customFormat="1">
+      <c r="F11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" s="19">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" s="19" customFormat="1">
+      <c r="F12" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O12" s="19">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" s="19" customFormat="1" ht="14">
+      <c r="F13" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="O13" s="19">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" s="19" customFormat="1">
+      <c r="F14" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" s="19" customFormat="1">
+      <c r="F15" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" s="23" customFormat="1">
+      <c r="F16" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="19">
+        <v>20</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" s="19" customFormat="1">
+      <c r="F17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="O17" s="19">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" s="19" customFormat="1">
+      <c r="F18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" s="19" customFormat="1">
+      <c r="F19" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" s="19" customFormat="1">
+      <c r="F20" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="19">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" s="19" customFormat="1">
+      <c r="F21" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" s="19">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F22" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" s="19">
+        <v>50</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F23" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" s="19">
+        <v>80</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F24" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" s="19">
+        <v>10</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F25" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" s="19">
+        <v>90</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="19">
+        <v>10</v>
+      </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" s="23" customFormat="1">
+      <c r="F27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="19">
+        <v>10</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="6:17" s="19" customFormat="1">
+      <c r="F28" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" s="19" customFormat="1">
+      <c r="F29" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" s="23" customFormat="1">
+      <c r="F30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="19">
+        <v>80</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="19">
+        <v>10</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="6:17" s="19" customFormat="1" ht="14">
+      <c r="F32" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O32" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" s="19" customFormat="1" ht="14">
+      <c r="F33" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="19">
+        <v>20</v>
+      </c>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F35" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" s="19">
+        <v>30</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="6:17" s="19" customFormat="1" ht="14.25" customHeight="1">
+      <c r="F36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="19">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" s="19" customFormat="1" ht="14">
+      <c r="F37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" s="19" customFormat="1" ht="14">
+      <c r="F38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="G38" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J38" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" s="23" customFormat="1">
+      <c r="F39" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="19">
+        <v>80</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N40" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="19">
+        <v>10</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O41" s="19">
         <v>20</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="F9" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="39" t="s">
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42" spans="6:17" s="23" customFormat="1" ht="14">
+      <c r="F42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K42" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M42" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="39">
+      <c r="N42" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O42" s="19">
+        <v>30</v>
+      </c>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="6:17" s="19" customFormat="1" ht="19">
+      <c r="F43" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" s="19" customFormat="1" ht="19">
+      <c r="F44" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O44" s="25">
         <v>10</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17" s="3" customFormat="1">
-      <c r="F10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39" t="s">
+    </row>
+    <row r="45" spans="6:17" s="23" customFormat="1" ht="19">
+      <c r="F45" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="39">
+      <c r="K45" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="23">
         <v>80</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" s="8" customFormat="1">
-      <c r="F11" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="39" t="s">
+    </row>
+    <row r="46" spans="6:17" s="23" customFormat="1" ht="19">
+      <c r="F46" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="39" t="s">
+      <c r="K46" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="39">
-        <v>30</v>
-      </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" s="9" customFormat="1">
-      <c r="F12" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="39" t="s">
+      <c r="N46" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O12" s="39">
-        <v>80</v>
-      </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" s="9" customFormat="1">
-      <c r="F13" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="39">
+      <c r="O46" s="23">
         <v>90</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" s="9" customFormat="1">
-      <c r="F14" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="39">
-        <v>20</v>
-      </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" s="9" customFormat="1">
-      <c r="F15" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="39">
-        <v>10</v>
-      </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" s="3" customFormat="1">
-      <c r="F16" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="39">
-        <v>80</v>
-      </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" s="10" customFormat="1">
-      <c r="F17" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" s="39">
-        <v>30</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" s="11" customFormat="1">
-      <c r="F18" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39">
-        <v>80</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" s="12" customFormat="1">
-      <c r="F19" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="39">
-        <v>10</v>
-      </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17">
-      <c r="F20" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="41">
-        <v>10</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17" ht="19">
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="6:17" ht="19">
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="6:17" ht="19">
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="6:17" ht="19">
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="6:17" ht="19">
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="6:17" ht="19">
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="6:17" ht="19">
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="6:17" ht="19">
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="6:17" ht="19">
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="6:17" ht="19">
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-    </row>
-    <row r="31" spans="6:17" ht="19">
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="6:17" ht="19">
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-    </row>
-    <row r="33" spans="6:15" ht="19">
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="6:15" ht="19">
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="6:15" ht="19">
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="6:15" ht="19">
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-    </row>
-    <row r="37" spans="6:15" ht="19">
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-    </row>
-    <row r="38" spans="6:15" ht="19">
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39" spans="6:15" ht="19">
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-    </row>
-    <row r="40" spans="6:15" ht="19">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-    </row>
-    <row r="41" spans="6:15" ht="19">
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-    </row>
-    <row r="42" spans="6:15" ht="19">
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-    </row>
-    <row r="43" spans="6:15" ht="19">
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-    </row>
-    <row r="44" spans="6:15" ht="19">
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="6:15" ht="19">
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-    </row>
-    <row r="46" spans="6:15" ht="19">
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-    </row>
-    <row r="47" spans="6:15" ht="19">
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="6:15" ht="20">
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="26"/>
+    </row>
+    <row r="47" spans="6:17" ht="19">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="6:17" ht="20">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="11"/>
     </row>
     <row r="49" spans="6:15" ht="20">
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="26"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" spans="6:15" ht="20">
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-    </row>
-    <row r="51" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-    </row>
-    <row r="52" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-    </row>
-    <row r="54" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-    </row>
-    <row r="55" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="6:15" s="13" customFormat="1" ht="19">
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="6:15" s="7" customFormat="1" ht="19">
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
     </row>
     <row r="57" spans="6:15" ht="19">
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="6:15" ht="19">
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" spans="6:15" ht="19">
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" spans="6:15" ht="19">
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="6:15" ht="19">
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="6:15" ht="19">
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" spans="6:15" ht="19">
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3754,10 +5159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:I7"/>
+  <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3771,27 +5176,955 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:9" ht="12.75" customHeight="1">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="8" spans="4:9" ht="16">
+      <c r="F8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="16">
+      <c r="F9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="16">
+      <c r="F10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="16">
+      <c r="F11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="16">
+      <c r="F12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="16">
+      <c r="F13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="16">
+      <c r="F14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="16">
+      <c r="F15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="16">
+      <c r="F16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" ht="16">
+      <c r="F17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" ht="16">
+      <c r="F18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" ht="16">
+      <c r="F19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" ht="16">
+      <c r="F20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" ht="16">
+      <c r="F21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" ht="16">
+      <c r="F22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" ht="16">
+      <c r="F23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" ht="16">
+      <c r="F24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" ht="16">
+      <c r="F25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" ht="16">
+      <c r="F26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" ht="16">
+      <c r="F27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" ht="16">
+      <c r="F28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" ht="16">
+      <c r="F29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" ht="16">
+      <c r="F30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" ht="16">
+      <c r="F31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" ht="16">
+      <c r="F32" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="16">
+      <c r="F33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="I33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" ht="16">
+      <c r="F34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="16">
+      <c r="F35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="16">
+      <c r="F36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="16">
+      <c r="F37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" ht="16">
+      <c r="F38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I38" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" ht="16">
+      <c r="F39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" ht="16">
+      <c r="F40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="16">
+      <c r="F41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="16">
+      <c r="F42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="I42" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" ht="16">
+      <c r="F43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" ht="16">
+      <c r="F44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" ht="16">
+      <c r="F45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" ht="16">
+      <c r="F46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" ht="16">
+      <c r="F47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I47" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" ht="16">
+      <c r="F48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="I48" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" ht="16">
+      <c r="F49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I49" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" ht="16">
+      <c r="F50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" ht="16">
+      <c r="F51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="I51" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" ht="16">
+      <c r="F52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" ht="16">
+      <c r="F53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="I53" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" ht="16">
+      <c r="F54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I54" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" ht="16">
+      <c r="F55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="I55" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" ht="16">
+      <c r="F56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I56" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="16">
+      <c r="F57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I57" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" ht="16">
+      <c r="F58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I58" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" ht="16">
+      <c r="F59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="I59" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" ht="16">
+      <c r="F60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" ht="16">
+      <c r="F61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" ht="16">
+      <c r="F62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" ht="16">
+      <c r="F63" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" ht="16">
+      <c r="F64" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" ht="16">
+      <c r="F65" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" ht="16">
+      <c r="F66" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" ht="16">
+      <c r="F67" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" ht="16">
+      <c r="F68" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" ht="16">
+      <c r="F69" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" ht="16">
+      <c r="F70" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" ht="16">
+      <c r="F71" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" ht="16">
+      <c r="F72" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" ht="16">
+      <c r="F73" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" ht="16">
+      <c r="F74" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" ht="16">
+      <c r="F75" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" ht="16">
+      <c r="F76" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" ht="16">
+      <c r="F77" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" ht="16">
+      <c r="F78" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" ht="16">
+      <c r="F79" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" ht="16">
+      <c r="F80" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" ht="16">
+      <c r="F81" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" ht="16">
+      <c r="F82" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" ht="16">
+      <c r="F83" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" ht="16">
+      <c r="F84" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" ht="16">
+      <c r="F85" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" ht="16">
+      <c r="F86" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" ht="16">
+      <c r="F87" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3803,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:G7"/>
+  <dimension ref="D7:G16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="F8" sqref="F8:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3821,21 +6154,93 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="4:7" ht="18">
+      <c r="F8" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="18">
+      <c r="F9" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="18">
+      <c r="F10" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="18">
+      <c r="F11" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="18">
+      <c r="F12" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="18">
+      <c r="F13" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18">
+      <c r="F14" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="18">
+      <c r="F15" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="18">
+      <c r="F16" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3847,10 +6252,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I35"/>
+  <dimension ref="D7:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3880,19 +6285,19 @@
       <c r="H7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:9" s="3" customFormat="1">
       <c r="F8" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
@@ -3900,13 +6305,13 @@
     </row>
     <row r="9" spans="4:9" s="3" customFormat="1">
       <c r="F9" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
@@ -3917,7 +6322,7 @@
         <v>67</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>17</v>
@@ -3928,13 +6333,13 @@
     </row>
     <row r="11" spans="4:9" s="3" customFormat="1">
       <c r="F11" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="19">
         <v>1</v>
@@ -3942,124 +6347,678 @@
     </row>
     <row r="12" spans="4:9" s="3" customFormat="1">
       <c r="F12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="F13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="F14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="F15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="F16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G24" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9">
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="4:9">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="6:8">
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="6:8">
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9">
+      <c r="F45" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9">
+      <c r="F46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="6:9">
+      <c r="F48" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9">
+      <c r="F52" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="6:9">
+      <c r="F55" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="6:9">
+      <c r="F56" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="6:9">
+      <c r="F57" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="6:9">
+      <c r="F58" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="6:9">
+      <c r="F59" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="6:9">
+      <c r="F60" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="6:9">
+      <c r="F61" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="F62" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4110,7 +7069,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4153,7 +7112,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4208,7 +7167,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4258,13 +7217,13 @@
       <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4275,13 +7234,13 @@
       <c r="F9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4292,13 +7251,13 @@
       <c r="F10" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="16" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4309,13 +7268,13 @@
       <c r="F11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4326,13 +7285,13 @@
       <c r="F12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4343,13 +7302,13 @@
       <c r="F13" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="16" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4360,17 +7319,17 @@
       <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="4:9" ht="14">
       <c r="E15" t="s">
         <v>133</v>
       </c>
@@ -4387,42 +7346,42 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="4:9" ht="14">
       <c r="E16" t="s">
         <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="5:9">
+    <row r="17" spans="5:9" ht="14">
       <c r="E17" t="s">
         <v>137</v>
       </c>
       <c r="F17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="16" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>